--- a/aimms_model/energy_hub/results/FIT_0/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0/results_capacities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Installation" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.341040462427742</v>
+        <v>86.705202312138724</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>560.90551660557435</v>
+        <v>2804.5275833860096</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>553.40070657927242</v>
+        <v>2767.0035328963622</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>897.60282631708935</v>
+        <v>4488.0141315854453</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FIT_0/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0/results_capacities.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86.705202312138724</v>
+        <v>151.7438066794212</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2804.5275833860096</v>
+        <v>2747.3344839064539</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>262.51678555539871</v>
       </c>
       <c r="C3">
-        <v>2767.0035328963622</v>
+        <v>2447.8684101038848</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4488.0141315854453</v>
+        <v>6841.5407826371338</v>
       </c>
     </row>
   </sheetData>
